--- a/doc/use_case_data.xlsx
+++ b/doc/use_case_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>用例名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,14 @@
   </si>
   <si>
     <t>general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,7 +460,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -468,9 +476,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -479,9 +490,12 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
     </row>
